--- a/data/GGG_03.xlsx
+++ b/data/GGG_03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4004327-3EB1-A94F-85D9-DE6157810839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2153CDE-11DB-7849-A62E-39DEA90EAF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10780" yWindow="1220" windowWidth="26840" windowHeight="14800" xr2:uid="{33508BB4-E171-8944-BD56-1EDF69D5804C}"/>
+    <workbookView xWindow="9100" yWindow="1220" windowWidth="26840" windowHeight="14800" xr2:uid="{33508BB4-E171-8944-BD56-1EDF69D5804C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -405,7 +405,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>216</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
